--- a/docs/assets/disciplinas/LOQ4049.xlsx
+++ b/docs/assets/disciplinas/LOQ4049.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -64,7 +64,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EQD-9,EQN-12</t>
+    <t>EQD-9,EQN-11</t>
   </si>
   <si>
     <t>Objetivos:</t>
@@ -144,15 +144,7 @@
     <t>Requisitos:</t>
   </si>
   <si>
-    <t xml:space="preserve">LOM3081 -  Introdução à Mecânica dos Sólidos  (Requisito fraco)
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">LOQ4002 -  Reatores Quimicos  (Requisito fraco)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOQ4054 -  Fenômenos de Transporte III  (Requisito fraco)
 </t>
   </si>
   <si>
@@ -513,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -766,22 +758,6 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" customHeight="1">
-      <c r="B26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="30" customHeight="1">
-      <c r="B27" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/assets/disciplinas/LOQ4049.xlsx
+++ b/docs/assets/disciplinas/LOQ4049.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>1) Formativos: Propiciar ao educando as condições básicas e necessárias para a sua formação profissional. 2) Informativos: fornecer ao educando os conceitos básicos para o entendimento, assessoramento e acompanhamento de Projetos na Indústria Química seguindo metodologia especifica.3) Automatizantes: desenvolver no educando o raciocínio analítico, obedecendo metodologia sistemática aplicada em projetos.</t>
+    <t>5840671 - Francisco José Moreira Chaves</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,13 +82,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5840671 - Francisco José Moreira Chaves</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Projetos: Conceituação e Viabilidade, Ponto Nivelamento, Legalização Industrial.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -100,9 +97,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1.Introdução: Conceitos de Gestão de Projetos2.Aspectos da Implantação de Projetos: Etapas Fundamentais e Formas Parciais3.O Ciclo de Vida do Projeto4.Aspectos da Viabilidade de Projetos: Receitas, Custos, Ponto de Nivelamento, Estimativas5.Guia PMBOK: Principais Áreas de Conhecimento6.Plano de Projeto7.O Gerente de Projeto e as Interfaces: Equipes de Projeto8.Legalização de Projetos: Aspectos sobre o Licenciamento9.Técnicas de Análise de Riscos Operacionais10.Aspectos sobre Auditorias e Auditorias Integradas11.Apresentação de Trabalhos.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -115,30 +109,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Por meio de aulas presenciais, com apresentação dos fundamentos e exemplos ou casos, e também pela apresentação de trabalhos em equipes.Justificativa: adequação do método de avaliação.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A Avaliação será: MF = (P1 + P2)/2; Onde: P1: Trabalho; P2: Trabalho. Poderá haver também prova individual sobre os fundamentos.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Prova de exame.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1) Chemical Engineering Plant Design (Vilbrandt e Bryden)
-2) Project Engineering of Process Plants Rose e Barrow (2ª impressão - 1968)
-3) Elaboração e Análise de Projetos Simonsen, M.H. e H. Flanger
-4) Implantação de Indústrias. Valle, E.C. Livros Técnicos e Científicos Editores S/A, Rio de Janeiro. 
-5) Introdução ao Projeto de Engenharia. Asimov, Morris. Editora Mestre Jou-São Paulo, 1968.
-6) IBGR  Instituto Brasileiro de Gerenciamento de Riscos, 2000.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -505,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -636,34 +622,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -677,85 +666,74 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>40</v>
+      <c r="C23" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOQ4049.xlsx
+++ b/docs/assets/disciplinas/LOQ4049.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>1) Formativos: Propiciar ao educando as condições básicas e necessárias para a sua formação profissional. 2) Informativos: fornecer ao educando os conceitos básicos para o entendimento, assessoramento e acompanhamento de Projetos na Indústria Química seguindo metodologia especifica.3) Automatizantes: desenvolver no educando o raciocínio analítico, obedecendo metodologia sistemática aplicada em projetos.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>1) Formative: Provide students with basic and necessary conditions for them professional qualification.2) Informational: Give to students basic concepts for them uptake, assistance and monitoring in Chemical Industry Design following a specifies methodology.3) Automated: Develop in students the reasoning analytical, following the systematic methodology applied in projects.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5840671 - Francisco José Moreira Chaves</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>1) Formative: Provide students with basic and necessary conditions for them professional qualification.2) Informational: Give to students basic concepts for them uptake, assistance and monitoring in Chemical Industry Design following a specifies methodology.3) Automated: Develop in students the reasoning analytical, following the systematic methodology applied in projects.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Projetos: Conceituação e Viabilidade, Ponto Nivelamento, Legalização Industrial.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1.Introdução: Conceitos de Gestão de Projetos2.Aspectos da Implantação de Projetos: Etapas Fundamentais e Formas Parciais3.O Ciclo de Vida do Projeto4.Aspectos da Viabilidade de Projetos: Receitas, Custos, Ponto de Nivelamento, Estimativas5.Guia PMBOK: Principais Áreas de Conhecimento6.Plano de Projeto7.O Gerente de Projeto e as Interfaces: Equipes de Projeto8.Legalização de Projetos: Aspectos sobre o Licenciamento9.Técnicas de Análise de Riscos Operacionais10.Aspectos sobre Auditorias e Auditorias Integradas11.Apresentação de Trabalhos.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,22 +115,30 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Por meio de aulas presenciais, com apresentação dos fundamentos e exemplos ou casos, e também pela apresentação de trabalhos em equipes.Justificativa: adequação do método de avaliação.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Por meio de aulas presenciais, com apresentação dos fundamentos e exemplos ou casos, e também pela apresentação de trabalhos em equipes.Justificativa: adequação do método de avaliação.</t>
+    <t>A Avaliação será: MF = (P1 + P2)/2; Onde: P1: Trabalho; P2: Trabalho. Poderá haver também prova individual sobre os fundamentos.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>A Avaliação será: MF = (P1 + P2)/2; Onde: P1: Trabalho; P2: Trabalho. Poderá haver também prova individual sobre os fundamentos.</t>
+    <t>Prova de exame.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Prova de exame.</t>
+    <t>1) Chemical Engineering Plant Design (Vilbrandt e Bryden)
+2) Project Engineering of Process Plants Rose e Barrow (2ª impressão - 1968)
+3) Elaboração e Análise de Projetos Simonsen, M.H. e H. Flanger
+4) Implantação de Indústrias. Valle, E.C. Livros Técnicos e Científicos Editores S/A, Rio de Janeiro. 
+5) Introdução ao Projeto de Engenharia. Asimov, Morris. Editora Mestre Jou-São Paulo, 1968.
+6) IBGR  Instituto Brasileiro de Gerenciamento de Riscos, 2000.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -491,13 +505,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -622,37 +636,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -666,74 +677,85 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>38</v>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
